--- a/src/historical_data/historical_data_results/historical_data_results.xlsx
+++ b/src/historical_data/historical_data_results/historical_data_results.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -63,9 +62,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -148,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -212,14 +211,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -246,6 +246,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -257,166 +258,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -428,13 +405,13 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -487,75 +464,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 9 of Clubs]</t>
+          <t>[Queen of Diamonds, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[5 of Hearts, Queen of Spades, Jack of Diamonds]</t>
+          <t>[1 of Diamonds, 2 of Hearts, 3 of Diamonds, 5 of Clubs]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['S']</t>
-        </is>
-      </c>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 2 of Spades]</t>
+          <t>[10 of Spades, 7 of Diamonds]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[4 of Clubs, 8 of Clubs, King of Diamonds]</t>
+          <t>[Queen of Hearts, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['S']</t>
-        </is>
-      </c>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[4 of Clubs, Jack of Hearts]</t>
+          <t>[2 of Spades, 4 of Diamonds]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1 of Hearts, 6 of Hearts]</t>
+          <t>[King of Clubs, Jack of Diamonds]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -567,19 +536,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, Jack of Diamonds, 3 of Diamonds]</t>
+          <t>[6 of Clubs, King of Hearts, Queen of Spades]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[Jack of Clubs, 5 of Spades, 6 of Clubs]</t>
+          <t>[7 of Clubs, 2 of Diamonds, King of Spades]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -588,26 +557,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['N', 'H']</t>
+          <t>['H']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[4 of Diamonds, 6 of Diamonds, 9 of Hearts]</t>
+          <t>[Jack of Hearts, 5 of Diamonds]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[10 of Hearts, 6 of Spades, 2 of Diamonds]</t>
+          <t>[4 of Clubs, 10 of Diamonds, 8 of Diamonds]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,30 +585,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['H', 'S']</t>
+          <t>['S']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[8 of Hearts, Queen of Diamonds]</t>
+          <t>[Jack of Hearts, Queen of Clubs]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[8 of Spades, 2 of Hearts, 1 of Spades]</t>
+          <t>[6 of Clubs, 4 of Clubs, Queen of Spades]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lose</t>
+          <t>Tie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -651,31 +620,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[1 of Diamonds, 5 of Diamonds]</t>
+          <t>[2 of Diamonds, 7 of Spades, 1 of Hearts]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[7 of Hearts, 1 of Clubs]</t>
+          <t>[Jack of Clubs, Jack of Clubs]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['N', 'H', 'S']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[9 of Spades, 10 of Clubs]</t>
+          <t>[9 of Spades, King of Hearts]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -683,199 +656,187 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[2 of Spades, 8 of Diamonds, 9 of Clubs]</t>
+          <t>[Queen of Clubs, 6 of Spades, 6 of Diamonds]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tie</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['S']</t>
-        </is>
-      </c>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 4 of Spades]</t>
+          <t>[4 of Hearts, 1 of Spades]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[Jack of Spades, 10 of Diamonds]</t>
+          <t>[Jack of Spades, 9 of Clubs]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Lose</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['N']</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[2 of Clubs, 9 of Diamonds, 9 of Spades]</t>
+          <t>[8 of Hearts, Jack of Spades]</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[1 of Hearts, 9 of Hearts]</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[7 of Hearts, Jack of Hearts]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['D']</t>
-        </is>
-      </c>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[King of Clubs, 1 of Spades]</t>
+          <t>[2 of Hearts, 6 of Hearts, King of Spades]</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[9 of Clubs, 7 of Clubs, 5 of Spades]</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>21</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[Queen of Diamonds, 5 of Clubs, King of Spades]</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Win</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Lose</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['H', 'S']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[3 of Diamonds, Queen of Hearts]</t>
+          <t>[6 of Hearts, 4 of Hearts, 9 of Spades]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[3 of Spades, Queen of Hearts, 10 of Spades]</t>
+          <t>[2 of Clubs, 10 of Diamonds, 8 of Hearts]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['S']</t>
+          <t>['D']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[5 of Clubs, 3 of Clubs, King of Clubs]</t>
+          <t>[3 of Diamonds, 8 of Diamonds, 3 of Clubs]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[3 of Hearts, 5 of Spades, 6 of Clubs, 4 of Hearts]</t>
+          <t>[3 of Clubs, 9 of Diamonds, 7 of Hearts]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tie</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['H', 'S']</t>
+          <t>['D']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[4 of Spades, 7 of Spades, 1 of Hearts]</t>
+          <t>[1 of Diamonds, Queen of Hearts]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[5 of Diamonds, 8 of Hearts, 5 of Hearts]</t>
+          <t>[6 of Spades, 5 of Diamonds, 10 of Hearts]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['D']</t>
-        </is>
-      </c>
+          <t>Tie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[6 of Hearts, 9 of Hearts, Queen of Spades]</t>
+          <t>[10 of Clubs, 5 of Hearts]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[7 of Clubs, King of Hearts]</t>
+          <t>[3 of Hearts, 8 of Spades, 4 of Diamonds, 2 of Clubs]</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -888,42 +849,38 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['H']</t>
+          <t>['S']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[King of Spades, 4 of Hearts, Jack of Clubs]</t>
+          <t>[Queen of Diamonds, 1 of Clubs]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[7 of Spades, Jack of Spades]</t>
+          <t>[7 of Hearts, 5 of Clubs, 1 of Spades, 10 of Clubs]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>['H']</t>
-        </is>
-      </c>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[7 of Clubs, King of Hearts]</t>
+          <t>[10 of Hearts, 7 of Spades]</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -931,31 +888,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 8 of Diamonds]</t>
+          <t>[3 of Spades, King of Diamonds, 9 of Diamonds]</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lose</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['S']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[8 of Clubs, 2 of Hearts]</t>
+          <t>[10 of Spades, 3 of Spades]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Queen of Clubs, 2 of Diamonds, 1 of Diamonds, 8 of Spades]</t>
+          <t>[4 of Spades, 8 of Clubs, 9 of Hearts]</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -966,33 +927,37 @@
           <t>Lose</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['S']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3 of Spades, 7 of Diamonds, 10 of Diamonds]</t>
+          <t>[King of Diamonds, 8 of Spades]</t>
         </is>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[5 of Spades, 5 of Hearts, King of Clubs]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>20</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[7 of Diamonds, 3 of Clubs, 6 of Spades, 10 of Spades]</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>26</v>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Win</t>
+          <t>Lose</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['D']</t>
+          <t>['S']</t>
         </is>
       </c>
     </row>
